--- a/medicine/Enfance/Victor_Canning/Victor_Canning.xlsx
+++ b/medicine/Enfance/Victor_Canning/Victor_Canning.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Victor Canning, né le 16 juin 1911 à Plymouth dans le comté de Devon en Angleterre et mort le 21 février 1986 à Cirencester dans le  Gloucestershire, est un écrivain britannique de roman policier, d'espionnage et touristiques.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études à Plymouth et à Oxford interrompues pour des raisons économiques, Victor Canning commence à travailler à 16 ans.
 Son premier roman, un livre de voyages, Mr. Finchley Discovers his England est publié en 1934. Il se consacre alors entièrement à l’écriture utilisant, outre son nom, deux pseudonymes, Alan Gould et Julian Forest.
@@ -550,8 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Mr. Finchley Discovers his England, 1934
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mr. Finchley Discovers his England, 1934
 Polycarp’s Progress, 1935
 Fly Away Paul, 1936
 Everyman’s England, 1936
@@ -602,68 +621,277 @@
 Vanishing Point, 1982
 Raven’s Wind, 1983
 Birds of a Feather, 1985
-Table Number Seven, 1987 (roman posthume terminé par sa femme et sa sœur)
-Série Rex Carver
-The Whip Hand, 1965
+Table Number Seven, 1987 (roman posthume terminé par sa femme et sa sœur)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Victor_Canning</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victor_Canning</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Rex Carver</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The Whip Hand, 1965
 Doubled in Diamonds, 1966
 The Python Project, 1967
-The Melting Man, 1968
-Trilogie du Roi Arthur
-The Crimson Chalice, 1976
+The Melting Man, 1968</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Victor_Canning</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victor_Canning</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Trilogie du Roi Arthur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The Crimson Chalice, 1976
 The Circle of the Gods, 1977
-The Immortal Wound, 1978
-Romans pour la jeunesse
-The Run Aways, 1972
+The Immortal Wound, 1978</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Victor_Canning</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victor_Canning</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>The Run Aways, 1972
 Les Fugitifs, série Flicka, Calmann, 1972, réédition Sélection du Reader's digest, 1973
  Flight of the Grey Goose, 1973
 Le Vol de l'oie cendrée, série Flicka, Calmann, 1973
 The Pain Tent, 1974
-La Fin du chemin, série Flicka, Calmann, 1975
-Recueil de nouvelles
-Young Man on a Bicycle, 1958 (titre américain Oasis Nine)
+La Fin du chemin, série Flicka, Calmann, 1975</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Victor_Canning</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victor_Canning</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Young Man on a Bicycle, 1958 (titre américain Oasis Nine)
 Delay on Turtle, 1962
 Comedies and Whimsies, 2007
-The Minerva Club, The Department of Patterns and Dr Kang, 2009
-Romans signés Alan Gould
-Two Men Fought, 1936
+The Minerva Club, The Department of Patterns and Dr Kang, 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Victor_Canning</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victor_Canning</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans signés Alan Gould</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Two Men Fought, 1936
 Mercy Lane, 1937
 Sanctuary from the Dragon, 1938
 Every Creature of God is Good, 1939
 The Viaduct, 1939
-Atlantic Company, 1940
-Roman signé Julian Forest
-The Wooden Angel, 1938</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Victor_Canning</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Victor_Canning</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Atlantic Company, 1940</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Victor_Canning</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victor_Canning</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Roman signé Julian Forest</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>The Wooden Angel, 1938</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Victor_Canning</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victor_Canning</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Adaptations
-1950 : La Salamandre d'or, adaptation de The Golden Salamander réalisée par Ronald Neame
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1950 : La Salamandre d'or, adaptation de The Golden Salamander réalisée par Ronald Neame
 1950 : Chasse aux espions, adaptation de Panther’s Moon réalisée par George Sherman
 1952 : Enquête à Venise, adaptation de Venetian Bird réalisée par Ralph Thomas
 1955 : A Man on the Beach, adaptation de Chance At the Wheel réalisée par Joseph Losey
@@ -678,31 +906,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Victor_Canning</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Victor_Canning</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Victor_Canning</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victor_Canning</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 1 : A - I, Nantes, Joseph K, coll. « Temps noir », 2007, 1054 p. (ISBN 978-2-910686-44-4, OCLC 315873251).
 Claude Mesplède, Les années "Série noire" : bibliographie critique d'une collection policière, vol. 3 : 1966-1972, Amiens, Editions Encrage, coll. « Travaux » (no 22), 1994, 4 p. (ISBN 978-2-906389-53-3).
